--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\open\any2map\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8599A09B-42C3-4599-B843-583E72DC8D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419CCF66-D975-4977-A419-D37D8789F006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5717" yWindow="1337" windowWidth="17983" windowHeight="12352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\open\any2map\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419CCF66-D975-4977-A419-D37D8789F006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EA8DCA-8BA5-4F09-9DE8-AFF25CE53E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5717" yWindow="1337" windowWidth="17983" windowHeight="12352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2057" yWindow="1346" windowWidth="17983" windowHeight="12351" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" r:id="rId1"/>
@@ -617,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -679,6 +679,26 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1300</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1300</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1300</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1300</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\open\any2map\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EA8DCA-8BA5-4F09-9DE8-AFF25CE53E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34259E68-4E92-4A9C-8A1E-2724D26391D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2057" yWindow="1346" windowWidth="17983" windowHeight="12351" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1689" windowWidth="17983" windowHeight="12351" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" r:id="rId1"/>
+    <sheet name="S2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,57 +34,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>E</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>跨列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>跨行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>跨行跨列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AaBb1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bb2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cc2c3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bb2Cc1c2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3d1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -97,13 +173,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -118,16 +187,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,30 +203,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -284,58 +417,465 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="9" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="17" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="18" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1" xr:uid="{A8CB08D6-0822-4ECB-84B1-5204C424D4F7}"/>
+    <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -397,7 +937,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -432,7 +972,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -607,11 +1147,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -619,13 +1154,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="10.92578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.92578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.45" x14ac:dyDescent="0.35">
@@ -649,21 +1184,21 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>IFERROR(C2-A2,"-")</f>
         <v>-</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -672,13 +1207,13 @@
       <c r="B3" s="4">
         <v>1300</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="4">
         <f>IFERROR(A3-B3,"-")</f>
         <v>-1288</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="b">
@@ -706,12 +1241,145 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E2:F3"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="9.0703125" customWidth="1"/>
+    <col min="6" max="6" width="10.92578125" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f>IFERROR(C3-A3,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="11">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1300</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="16">
+        <f>IFERROR(A4-B4,"-")</f>
+        <v>-1288</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="18">
+        <v>44917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="33">
+        <v>44917</v>
+      </c>
+      <c r="G5" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\open\any2map\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34259E68-4E92-4A9C-8A1E-2724D26391D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE01D447-3D0B-4691-B6E0-C4749489AAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1689" windowWidth="17983" windowHeight="12351" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1689" windowWidth="17983" windowHeight="12351" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" r:id="rId1"/>
     <sheet name="S2" sheetId="2" r:id="rId2"/>
+    <sheet name="S3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>A</t>
   </si>
@@ -113,6 +114,10 @@
   </si>
   <si>
     <t>c3d1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>`@</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +192,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -717,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,6 +789,7 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,64 +814,64 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="7" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="18" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="18" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,7 +879,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1184,21 +1208,21 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>IFERROR(C2-A2,"-")</f>
         <v>-</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -1207,13 +1231,13 @@
       <c r="B3" s="4">
         <v>1300</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="4">
         <f>IFERROR(A3-B3,"-")</f>
         <v>-1288</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="b">
@@ -1243,7 +1267,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1253,133 +1277,352 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="9.0703125" customWidth="1"/>
-    <col min="6" max="6" width="10.92578125" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.0703125" customWidth="1"/>
+    <col min="7" max="7" width="10.92578125" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="2:8" ht="14.6" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="19" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="G3" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="H3" s="45"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="15" t="str">
-        <f>IFERROR(C3-A3,"-")</f>
+      <c r="E4" s="15" t="str">
+        <f>IFERROR(D4-B4,"-")</f>
         <v>-</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="17"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="11">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="11">
         <v>12</v>
       </c>
-      <c r="B4" s="13">
+      <c r="C5" s="13">
         <v>1300</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="16">
-        <f>IFERROR(A4-B4,"-")</f>
+      <c r="D5" s="39"/>
+      <c r="E5" s="16">
+        <f>IFERROR(B5-C5,"-")</f>
         <v>-1288</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="18">
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="18">
         <v>44917</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="b">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="b">
+      <c r="C6" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="D6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="33">
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="42">
         <v>44917</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="H6" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BF1798-7106-4A69-A583-8A70C609819C}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="15" t="str">
+        <f>IFERROR(D4-B4,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1300</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="16">
+        <f>IFERROR(B5-C5,"-")</f>
+        <v>-1288</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="18">
+        <v>44917</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="42">
+        <v>44917</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\open\any2map\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE01D447-3D0B-4691-B6E0-C4749489AAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F0A4D1-AA11-4199-BB5D-7BD44F2CCD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1689" windowWidth="17983" windowHeight="12351" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" r:id="rId1"/>
     <sheet name="S2" sheetId="2" r:id="rId2"/>
     <sheet name="S3" sheetId="3" r:id="rId3"/>
+    <sheet name="S4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>A</t>
   </si>
@@ -118,6 +119,22 @@
   </si>
   <si>
     <t>`@</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +327,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -722,6 +745,88 @@
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,7 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -790,6 +895,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,6 +934,27 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="18" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,25 +994,22 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="18" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="7" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,7 +1017,12 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1208,21 +1351,21 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>IFERROR(C2-A2,"-")</f>
         <v>-</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -1231,13 +1374,13 @@
       <c r="B3" s="4">
         <v>1300</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="4">
         <f>IFERROR(A3-B3,"-")</f>
         <v>-1288</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="b">
@@ -1267,7 +1410,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1280,7 +1423,7 @@
   <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B2" sqref="B2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1295,15 +1438,15 @@
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="19" t="s">
         <v>20</v>
       </c>
@@ -1324,27 +1467,27 @@
       <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="45"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="15" t="str">
         <f>IFERROR(D4-B4,"-")</f>
         <v>-</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="35"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1354,13 +1497,13 @@
       <c r="C5" s="13">
         <v>1300</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="16">
         <f>IFERROR(B5-C5,"-")</f>
         <v>-1288</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="18">
         <v>44917</v>
       </c>
@@ -1372,15 +1515,15 @@
       <c r="C6" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="42">
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="34">
         <v>44917</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1395,12 +1538,12 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1413,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BF1798-7106-4A69-A583-8A70C609819C}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -1458,15 +1601,15 @@
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="19" t="s">
         <v>20</v>
       </c>
@@ -1493,10 +1636,10 @@
       <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="45"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="20" t="s">
         <v>22</v>
       </c>
@@ -1505,21 +1648,21 @@
       <c r="A4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="50" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="15" t="str">
         <f>IFERROR(D4-B4,"-")</f>
         <v>-</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="35"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="17"/>
       <c r="I4" s="20" t="s">
         <v>22</v>
@@ -1535,13 +1678,13 @@
       <c r="C5" s="13">
         <v>1300</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="16">
         <f>IFERROR(B5-C5,"-")</f>
         <v>-1288</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="18">
         <v>44917</v>
       </c>
@@ -1559,15 +1702,15 @@
       <c r="C6" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="42">
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="34">
         <v>44917</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="20" t="s">
         <v>22</v>
       </c>
@@ -1614,12 +1757,135 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82009CFA-4219-49FA-BC19-A7F7808430E6}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.6" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:7" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="B2"/>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="15" t="str">
+        <f>IFERROR(E4-C4,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="55"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="11">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1300</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="16">
+        <f>IFERROR(C5-D5,"-")</f>
+        <v>-1288</v>
+      </c>
+      <c r="G5" s="58"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F4:F5">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
